--- a/empirics/modeldata/ES_capital_goods.xlsx
+++ b/empirics/modeldata/ES_capital_goods.xlsx
@@ -13,13 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
-  <si>
-    <t>rhoagg_cap</t>
-  </si>
-  <si>
-    <t>rhoagg_cap_se</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>gammaagg_cap</t>
   </si>
@@ -75,10 +69,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
